--- a/data/trans_orig/ProbViv_temp-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24BB5559-B37B-448D-B766-690EE012AD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90AEF056-F007-4CA3-B95D-869BD1E337B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A283875A-B81A-4F00-8709-8E2AFC86ADD8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06426C39-8631-4EAD-B4FD-F7E6AC52D653}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -230,217 +230,217 @@
     <t>49,96%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
   </si>
   <si>
     <t>50,59%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
   </si>
   <si>
     <t>50,34%</t>
   </si>
   <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
   </si>
   <si>
     <t>50,04%</t>
   </si>
   <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
   </si>
   <si>
     <t>49,41%</t>
   </si>
   <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
   </si>
   <si>
     <t>49,66%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
   </si>
   <si>
     <t>40,19%</t>
   </si>
   <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
   </si>
   <si>
     <t>38,77%</t>
   </si>
   <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
   </si>
   <si>
     <t>39,47%</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
   </si>
   <si>
     <t>59,81%</t>
   </si>
   <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
   </si>
   <si>
     <t>61,23%</t>
   </si>
   <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
   </si>
   <si>
     <t>60,53%</t>
   </si>
   <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>33,9%</t>
   </si>
   <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
   </si>
   <si>
     <t>67,64%</t>
   </si>
   <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
   </si>
   <si>
     <t>66,1%</t>
   </si>
   <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
   </si>
   <si>
     <t>40,83%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>40,17%</t>
   </si>
   <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
   </si>
   <si>
     <t>40,48%</t>
   </si>
   <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
   </si>
   <si>
     <t>59,17%</t>
   </si>
   <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
   </si>
   <si>
     <t>59,83%</t>
   </si>
   <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
   </si>
 </sst>
 </file>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F79A70-0CA0-43B5-A97D-7DD1856571E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307D9402-4DC7-4E2A-8217-A2DCA0F55BD2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1603,7 +1603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13B3250-C94B-481A-A169-7196B7887C80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37315363-3E8D-4F46-AE4F-21C6F67FB3D7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2354,7 +2354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD9B833-E613-4F02-A71B-EBDB87C5D1BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE421D20-79C0-4FC9-B6E3-350F08D7E2BE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3105,7 +3105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047077D0-64C3-4AEF-8627-D1616310B88F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D3AEF3-4FF0-4269-8B5C-39F3000D1CA6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3742,7 +3742,7 @@
         <v>1947</v>
       </c>
       <c r="D14" s="7">
-        <v>1997903</v>
+        <v>1997902</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>125</v>
@@ -3793,7 +3793,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3376535</v>
+        <v>3376534</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/ProbViv_temp-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90AEF056-F007-4CA3-B95D-869BD1E337B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAAECF4F-C3F3-4108-B3E5-3A5F5CF4A2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06426C39-8631-4EAD-B4FD-F7E6AC52D653}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7536EDC8-B760-4EEC-8EE4-8EC67900DC0B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -191,7 +191,7 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares con problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307D9402-4DC7-4E2A-8217-A2DCA0F55BD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE05CA4-8839-46D4-BA11-B8E81B28F4C9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1179,7 +1179,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1230,7 +1230,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1489,7 +1489,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1519,7 +1519,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1540,7 +1540,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1570,7 +1570,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1603,7 +1603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37315363-3E8D-4F46-AE4F-21C6F67FB3D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9F514D-361E-41F2-943C-7B5FCBAD9864}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2354,7 +2354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE421D20-79C0-4FC9-B6E3-350F08D7E2BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823F01A5-1EBD-449B-BC76-B1178761CC41}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3105,7 +3105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D3AEF3-4FF0-4269-8B5C-39F3000D1CA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D540B8-8DE6-478F-AE2A-A512123E558F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/ProbViv_temp-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAAECF4F-C3F3-4108-B3E5-3A5F5CF4A2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43A175DC-F746-42B9-8A5F-EFC1B9EDDD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7536EDC8-B760-4EEC-8EE4-8EC67900DC0B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7861EE25-7FA1-49AC-9B5E-55ACA332146E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="134">
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
+    <t>Población con problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -152,7 +152,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>Población con problemas de temperatura en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -191,7 +191,7 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>Población con problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -224,223 +224,223 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2023 (Tasa respuesta: 99,92%)</t>
+    <t>Población con problemas de temperatura en la vivienda en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>49,96%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
   </si>
   <si>
     <t>50,59%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
   </si>
   <si>
     <t>50,34%</t>
   </si>
   <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
   </si>
   <si>
     <t>50,04%</t>
   </si>
   <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
   </si>
   <si>
     <t>49,41%</t>
   </si>
   <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
   </si>
   <si>
     <t>49,66%</t>
   </si>
   <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
   </si>
   <si>
     <t>40,19%</t>
   </si>
   <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
   </si>
   <si>
     <t>38,77%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
   </si>
   <si>
     <t>39,47%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
   </si>
   <si>
     <t>59,81%</t>
   </si>
   <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
   </si>
   <si>
     <t>61,23%</t>
   </si>
   <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
   </si>
   <si>
     <t>60,53%</t>
   </si>
   <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
   </si>
   <si>
     <t>33,9%</t>
   </si>
   <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
   </si>
   <si>
     <t>67,64%</t>
   </si>
   <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
   </si>
   <si>
     <t>66,1%</t>
   </si>
   <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
   </si>
   <si>
     <t>40,83%</t>
   </si>
   <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
   </si>
   <si>
     <t>40,17%</t>
   </si>
   <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
   </si>
   <si>
     <t>40,48%</t>
   </si>
   <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
   </si>
   <si>
     <t>59,17%</t>
   </si>
   <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>59,83%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
   </si>
 </sst>
 </file>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE05CA4-8839-46D4-BA11-B8E81B28F4C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983CABD9-0223-444D-B205-8BB2FC66D806}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1179,7 +1179,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1230,7 +1230,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1489,7 +1489,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1519,7 +1519,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1540,7 +1540,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1570,7 +1570,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1603,7 +1603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9F514D-361E-41F2-943C-7B5FCBAD9864}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856BF63B-BDCF-4F3C-9627-2BE59127350A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2354,7 +2354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823F01A5-1EBD-449B-BC76-B1178761CC41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19865A4D-CFFE-4011-8BCD-1ADE3ACBC73C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3105,7 +3105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D540B8-8DE6-478F-AE2A-A512123E558F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D83059F-C8E1-4F6E-877A-FD0E37F67894}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3742,7 +3742,7 @@
         <v>1947</v>
       </c>
       <c r="D14" s="7">
-        <v>1997902</v>
+        <v>1997903</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>125</v>
@@ -3793,7 +3793,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3376534</v>
+        <v>3376535</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
